--- a/Electronics/Stepper/OUT/R2/BOM.xlsx
+++ b/Electronics/Stepper/OUT/R2/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJ\open_niryo_one\Electronics\Stepper\OUT\R2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF97CC42-FC5E-47FE-B6F1-7A93E8661E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44939B9-F90C-4DBD-9F17-7C6B8237A7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-19320" yWindow="-1290" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="125">
   <si>
     <t>Comment</t>
   </si>
@@ -58,9 +58,6 @@
     <t>C4, C6, C24, C25</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
     <t>C11</t>
   </si>
   <si>
@@ -109,27 +106,15 @@
     <t>C19</t>
   </si>
   <si>
-    <t>BL-HUE33-AV</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>D1, D4</t>
   </si>
   <si>
-    <t>1N4148WC</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
     <t>SOD323</t>
   </si>
   <si>
-    <t>10MQ040(60)</t>
-  </si>
-  <si>
     <t>Rectifier diode</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>D5</t>
   </si>
   <si>
-    <t>1206L050</t>
-  </si>
-  <si>
     <t>Fuse</t>
   </si>
   <si>
@@ -157,18 +139,12 @@
     <t>1206Lxxx</t>
   </si>
   <si>
-    <t>1206L200</t>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
     <t>PLS-2</t>
   </si>
   <si>
-    <t>Connector</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -259,24 +235,15 @@
     <t>R7, R10</t>
   </si>
   <si>
-    <t>.15RF</t>
-  </si>
-  <si>
     <t>Resistor</t>
   </si>
   <si>
     <t>R8, R9</t>
   </si>
   <si>
-    <t>5K6F</t>
-  </si>
-  <si>
     <t>R11</t>
   </si>
   <si>
-    <t>3K32F</t>
-  </si>
-  <si>
     <t>R13</t>
   </si>
   <si>
@@ -286,27 +253,18 @@
     <t>R15</t>
   </si>
   <si>
-    <t>SAMD21G18A-AUT</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
     <t>LQFP48</t>
   </si>
   <si>
-    <t>TC1047</t>
-  </si>
-  <si>
     <t>Temperature Sensor</t>
   </si>
   <si>
     <t>U2</t>
   </si>
   <si>
-    <t>AS5600</t>
-  </si>
-  <si>
     <t>program magnetic rotary position  sensor</t>
   </si>
   <si>
@@ -316,9 +274,6 @@
     <t>SOIC8</t>
   </si>
   <si>
-    <t>A4954</t>
-  </si>
-  <si>
     <t>DMOS PWM Motor Driver</t>
   </si>
   <si>
@@ -328,9 +283,6 @@
     <t>TSSOP-16P</t>
   </si>
   <si>
-    <t>LM2594M-ADJ</t>
-  </si>
-  <si>
     <t>U5</t>
   </si>
   <si>
@@ -340,9 +292,6 @@
     <t>U6</t>
   </si>
   <si>
-    <t>MCP2515</t>
-  </si>
-  <si>
     <t>U7</t>
   </si>
   <si>
@@ -358,9 +307,6 @@
     <t>NX3215SA</t>
   </si>
   <si>
-    <t>KX-K 16 MHZ</t>
-  </si>
-  <si>
     <t>Y2</t>
   </si>
   <si>
@@ -371,12 +317,90 @@
   </si>
   <si>
     <t>5032</t>
+  </si>
+  <si>
+    <t>10uF x 6V3</t>
+  </si>
+  <si>
+    <t>EEV107M035A9HAA</t>
+  </si>
+  <si>
+    <t>C6032</t>
+  </si>
+  <si>
+    <t>B3528</t>
+  </si>
+  <si>
+    <t>APT1608QBC/D</t>
+  </si>
+  <si>
+    <t>1N4148WC-7-F</t>
+  </si>
+  <si>
+    <t>10MQ040NTRPBF</t>
+  </si>
+  <si>
+    <t>1206L050YR</t>
+  </si>
+  <si>
+    <t>1206L200PR</t>
+  </si>
+  <si>
+    <t>L-KLS1-207-1-02-S</t>
+  </si>
+  <si>
+    <t>L-KLS1-207-1-04-S</t>
+  </si>
+  <si>
+    <t>L-KLS1-207-1-02-R</t>
+  </si>
+  <si>
+    <t>DS1069-4 M</t>
+  </si>
+  <si>
+    <t>CDRH74NP-101MC</t>
+  </si>
+  <si>
+    <t>0.15R 1%</t>
+  </si>
+  <si>
+    <t>5.6K 1%</t>
+  </si>
+  <si>
+    <t>3.32K 1% </t>
+  </si>
+  <si>
+    <t>ATSAMD21G18-AUT</t>
+  </si>
+  <si>
+    <t>TC1047AVNBTR</t>
+  </si>
+  <si>
+    <t>AS5600-ASOM</t>
+  </si>
+  <si>
+    <t>A4954ELPTR-T</t>
+  </si>
+  <si>
+    <t>LM2594M-ADJ/TR</t>
+  </si>
+  <si>
+    <t>MCP2515T-I</t>
+  </si>
+  <si>
+    <t>NX5032GA-16.000M-STD-CSU-2</t>
+  </si>
+  <si>
+    <t>16 MHz cristal</t>
+  </si>
+  <si>
+    <t>32,768 KHz cristal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -488,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -512,6 +536,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -895,14 +922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -910,7 +937,7 @@
     <col min="4" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -927,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -938,13 +965,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -955,13 +982,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -972,64 +999,64 @@
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1037,612 +1064,608 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="D22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="D26" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>79</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="D38" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="D39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="D41" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="B42" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="D43" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Electronics/Stepper/OUT/R2/BOM.xlsx
+++ b/Electronics/Stepper/OUT/R2/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJ\open_niryo_one\Electronics\Stepper\OUT\R2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44939B9-F90C-4DBD-9F17-7C6B8237A7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE3416-A3B7-44AE-BA49-44DE76657E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1290" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="125">
   <si>
     <t>Comment</t>
   </si>
@@ -154,9 +154,6 @@
     <t>J2</t>
   </si>
   <si>
-    <t>CUI UJ2-MIBH2-4-SMT-TR</t>
-  </si>
-  <si>
     <t>Micro USB connector</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
     <t>L-KLS1-207-1-02-R</t>
   </si>
   <si>
-    <t>DS1069-4 M</t>
-  </si>
-  <si>
     <t>CDRH74NP-101MC</t>
   </si>
   <si>
@@ -395,6 +389,12 @@
   </si>
   <si>
     <t>32,768 KHz cristal</t>
+  </si>
+  <si>
+    <t>TE 1981584-1</t>
+  </si>
+  <si>
+    <t>DS1069-4 MR</t>
   </si>
 </sst>
 </file>
@@ -926,7 +926,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -965,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1">
         <v>12</v>
@@ -982,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
@@ -1016,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -1050,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>21</v>
@@ -1095,7 +1095,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>24</v>
@@ -1118,7 +1118,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1126,14 +1126,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>31</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>36</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>40</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>42</v>
@@ -1259,17 +1259,17 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1294,16 +1294,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1311,16 +1311,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -1328,16 +1328,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1345,16 +1345,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1362,16 +1362,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D26" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1396,16 +1396,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1413,16 +1413,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="D29" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -1430,16 +1430,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -1447,16 +1447,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D31" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1464,16 +1464,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1481,16 +1481,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1498,16 +1498,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="D34" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1515,16 +1515,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1532,16 +1532,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1549,16 +1549,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1566,16 +1566,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1583,16 +1583,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1600,16 +1600,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1634,16 +1634,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1651,16 +1651,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>

--- a/Electronics/Stepper/OUT/R2/BOM.xlsx
+++ b/Electronics/Stepper/OUT/R2/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJ\open_niryo_one\Electronics\Stepper\OUT\R2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE3416-A3B7-44AE-BA49-44DE76657E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8227EB9F-5941-4429-A028-651A81DA743D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1290" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -926,7 +926,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Electronics/Stepper/OUT/R2/BOM.xlsx
+++ b/Electronics/Stepper/OUT/R2/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJ\open_niryo_one\Electronics\Stepper\OUT\R2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8227EB9F-5941-4429-A028-651A81DA743D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461E3E32-3390-4C7C-9393-E0CF36921C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1290" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,12 +343,6 @@
     <t>1206L200PR</t>
   </si>
   <si>
-    <t>L-KLS1-207-1-02-S</t>
-  </si>
-  <si>
-    <t>L-KLS1-207-1-04-S</t>
-  </si>
-  <si>
     <t>L-KLS1-207-1-02-R</t>
   </si>
   <si>
@@ -394,7 +388,13 @@
     <t>TE 1981584-1</t>
   </si>
   <si>
-    <t>DS1069-4 MR</t>
+    <t>5-146280-2</t>
+  </si>
+  <si>
+    <t>5-146280-4</t>
+  </si>
+  <si>
+    <t>XH2.54MM 4pins right</t>
   </si>
 </sst>
 </file>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>40</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>42</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>44</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>50</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>55</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>70</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>5</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>5</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>5</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>78</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>80</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>83</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>5</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>5</v>
@@ -1637,7 +1637,7 @@
         <v>91</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>92</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>94</v>
